--- a/characterリスト.xlsx
+++ b/characterリスト.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6F54B4E108E3E434/ドキュメント/works/16job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A064C215-31D8-447E-AF39-14017729046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32B4BB3-FDFA-4CB4-A350-F2B817584590}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{A064C215-31D8-447E-AF39-14017729046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2907368A-1D4C-441A-99BC-54B8F6F04E0F}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9983" xr2:uid="{A4C20E54-849A-4E90-9BFE-642BF9C378F3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{A4C20E54-849A-4E90-9BFE-642BF9C378F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕事" sheetId="1" r:id="rId1"/>
+    <sheet name="学校" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>1. 左上：ロジカル・管理（整理整頓・効率化・安定）</t>
   </si>
@@ -353,12 +354,315 @@
   <si>
     <t>A creative, multi-colored monster creature with toys, musical notes, and paint ideas popping out of its head, messy but artistic, explosion of creative energy, vivid rainbow and neon tones,style: minimalist 3D creature illustration, soft clay material, high quality render, soft studio lighting, pastel colors with apple blue accent, white background, clean, cute but professional, toy design --ar 1:1</t>
   </si>
+  <si>
+    <t>16 ENGLISH PROMPTS</t>
+  </si>
+  <si>
+    <t>1. Culture Festival Center Stage Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with a pale pink-white body color.</t>
+  </si>
+  <si>
+    <t>Wearing a slightly flashy MC-style school jacket and a tie in #FF2D55.</t>
+  </si>
+  <si>
+    <t>Holding a microphone and waving confidently.</t>
+  </si>
+  <si>
+    <t>Standing at the center of a school festival stage.</t>
+  </si>
+  <si>
+    <t>Background: gym stage, spotlights, simple confetti, audience as silhouettes.</t>
+  </si>
+  <si>
+    <t>Bright, confident expression.</t>
+  </si>
+  <si>
+    <t>2. Sports Festival Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with warm white body color and red accents.</t>
+  </si>
+  <si>
+    <t>Wearing a sports festival headband in #FF3B30 and a whistle around the neck.</t>
+  </si>
+  <si>
+    <t>Holding a relay baton, fist raised energetically.</t>
+  </si>
+  <si>
+    <t>Sports uniform style outfit.</t>
+  </si>
+  <si>
+    <t>Background: school athletic field with track lines and cheering flags.</t>
+  </si>
+  <si>
+    <t>Passionate and energetic expression.</t>
+  </si>
+  <si>
+    <t>3. Hallway Runway Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with light blue-tinted white body color.</t>
+  </si>
+  <si>
+    <t>Stylish slightly-unbuttoned school blazer with cyan accents #00D1FF.</t>
+  </si>
+  <si>
+    <t>Wearing standout sneakers and decorative pins.</t>
+  </si>
+  <si>
+    <t>Walking confidently like a runway in a school hallway.</t>
+  </si>
+  <si>
+    <t>Background: bright hallway with window light and floor shadows.</t>
+  </si>
+  <si>
+    <t>Cool, confident expression.</t>
+  </si>
+  <si>
+    <t>4. Rooftop Free Time Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with soft lavender-white body color.</t>
+  </si>
+  <si>
+    <t>Casual hoodie with purple accents #7C4DFF.</t>
+  </si>
+  <si>
+    <t>Holding a paper airplane, relaxed pose.</t>
+  </si>
+  <si>
+    <t>Background: school rooftop fence, blue sky, distant buildings.</t>
+  </si>
+  <si>
+    <t>Free-spirited, satisfied expression.</t>
+  </si>
+  <si>
+    <t>5. Cheer Leader Captain Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with warm cream body color.</t>
+  </si>
+  <si>
+    <t>Wearing a classic black school uniform and an armband in #FFB300.</t>
+  </si>
+  <si>
+    <t>Holding a megaphone, commanding posture.</t>
+  </si>
+  <si>
+    <t>Background: schoolyard cheering area with waving flags.</t>
+  </si>
+  <si>
+    <t>Serious, passionate leader expression.</t>
+  </si>
+  <si>
+    <t>6. Class Representative Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with soft mint-white body color.</t>
+  </si>
+  <si>
+    <t>Neatly worn school uniform with green name tag #2ECC71.</t>
+  </si>
+  <si>
+    <t>Holding a clipboard, upright posture.</t>
+  </si>
+  <si>
+    <t>Background: classroom with blackboard and aligned desks.</t>
+  </si>
+  <si>
+    <t>Calm, reliable expression.</t>
+  </si>
+  <si>
+    <t>7. Scoreboard Star Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with pale yellow-white body color.</t>
+  </si>
+  <si>
+    <t>School uniform with a red pen in the chest pocket.</t>
+  </si>
+  <si>
+    <t>Pointing proudly at a gold “perfect score” sticker.</t>
+  </si>
+  <si>
+    <t>Background: school hallway bulletin board with abstract score sheets.</t>
+  </si>
+  <si>
+    <t>Confident, slightly competitive expression.</t>
+  </si>
+  <si>
+    <t>8. Science Lab Researcher Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with light teal-white body color.</t>
+  </si>
+  <si>
+    <t>Wearing safety goggles and a simple lab coat.</t>
+  </si>
+  <si>
+    <t>Holding a test tube and observing closely.</t>
+  </si>
+  <si>
+    <t>Background: science lab table, beakers, shelves in minimal style.</t>
+  </si>
+  <si>
+    <t>Focused and curious expression.</t>
+  </si>
+  <si>
+    <t>9. Secret Account Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with cool light-blue body color and dark navy shadows.</t>
+  </si>
+  <si>
+    <t>Holding a smartphone glowing in #00E5FF light.</t>
+  </si>
+  <si>
+    <t>Standing in a dim after-school hallway corner.</t>
+  </si>
+  <si>
+    <t>Small anonymous mask icon as a charm accessory.</t>
+  </si>
+  <si>
+    <t>Mischievous, secretive smile.</t>
+  </si>
+  <si>
+    <t>10. Club Room Hangout Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with warm beige-white body color.</t>
+  </si>
+  <si>
+    <t>Casual school outfit, club towel over the shoulder in #FF6F00.</t>
+  </si>
+  <si>
+    <t>Sitting casually next to a small locked box.</t>
+  </si>
+  <si>
+    <t>Background: messy club room with lockers and sports gear.</t>
+  </si>
+  <si>
+    <t>Relaxed, inner-circle smile.</t>
+  </si>
+  <si>
+    <t>11. Uniform Customizer Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with soft pink-white body color.</t>
+  </si>
+  <si>
+    <t>Customized school uniform with unique tie or ribbon in #FF4D8D.</t>
+  </si>
+  <si>
+    <t>Wearing decorative badges.</t>
+  </si>
+  <si>
+    <t>Standing quietly in a school entrance with shoe lockers and mirror reflection.</t>
+  </si>
+  <si>
+    <t>Cool, reserved expression.</t>
+  </si>
+  <si>
+    <t>12. Doodle Notebook Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with neutral gray-white body color.</t>
+  </si>
+  <si>
+    <t>Leaning over a desk, drawing abstract doodles in a notebook.</t>
+  </si>
+  <si>
+    <t>Holding a pen, fully absorbed.</t>
+  </si>
+  <si>
+    <t>Background: desk with open textbook and stationery.</t>
+  </si>
+  <si>
+    <t>Immersed, creative expression.</t>
+  </si>
+  <si>
+    <t>13. Stage Crew Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with pale blue-white body color.</t>
+  </si>
+  <si>
+    <t>Wearing a headset and event staff armband in #4A90E2.</t>
+  </si>
+  <si>
+    <t>Holding a schedule sheet, giving subtle instructions.</t>
+  </si>
+  <si>
+    <t>Background: backstage area with curtains and cables.</t>
+  </si>
+  <si>
+    <t>Calm, dependable expression.</t>
+  </si>
+  <si>
+    <t>14. Library Committee Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with soft green-white body color.</t>
+  </si>
+  <si>
+    <t>Holding a book and placing a bookmark.</t>
+  </si>
+  <si>
+    <t>Small librarian-style stamp icon accessory.</t>
+  </si>
+  <si>
+    <t>Background: quiet school library with bookshelves and desk lamp.</t>
+  </si>
+  <si>
+    <t>Gentle, peaceful expression.</t>
+  </si>
+  <si>
+    <t>15. Mock Exam Ranker Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with slightly desaturated white body color.</t>
+  </si>
+  <si>
+    <t>Holding mock exam result papers and a red pen #E53935.</t>
+  </si>
+  <si>
+    <t>Standing still with intense focus.</t>
+  </si>
+  <si>
+    <t>Background: bulletin board with abstract ranking charts.</t>
+  </si>
+  <si>
+    <t>Serious, competitive expression.</t>
+  </si>
+  <si>
+    <t>16. Self-Study Room Mobby</t>
+  </si>
+  <si>
+    <t>Mobby with cool indigo-white body color.</t>
+  </si>
+  <si>
+    <t>Neatly dressed school uniform.</t>
+  </si>
+  <si>
+    <t>Studying at a desk with a timer and sticky notes.</t>
+  </si>
+  <si>
+    <t>Background: silent study room with partitions and soft shadows.</t>
+  </si>
+  <si>
+    <t>Extremely focused, calm expression.</t>
+  </si>
+  <si>
+    <t>style: minimalist 3D creature illustration, high quality render, no mouth,Right eye lens, clean, cute but professional, toy design --ar 1:1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +696,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,6 +765,18 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,239 +1115,836 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB539BFD-D6A4-4C62-BD4F-8FB918262DAA}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.899999999999999" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" ht="19.899999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="19.899999999999999" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:1" ht="19.899999999999999">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="19.899999999999999" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:1" ht="19.899999999999999">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:1">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:1">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="19.899999999999999" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:1" ht="19.899999999999999">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:1">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:1">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C5FBE3-5FE9-49E7-806F-321EF1DBB674}">
+  <dimension ref="A1:H163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21.75">
+      <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="21.75">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21.75">
+      <c r="A46" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21.75">
+      <c r="A56" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21.75">
+      <c r="A66" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="21.75">
+      <c r="A76" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="21.75">
+      <c r="A86" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="21.75">
+      <c r="A96" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="21.75">
+      <c r="A106" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="21.75">
+      <c r="A116" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="21.75">
+      <c r="A126" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="21.75">
+      <c r="A136" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="21.75">
+      <c r="A146" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="21.75">
+      <c r="A156" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
